--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14549,6 +14549,205 @@
         <v>382.5545454545455</v>
       </c>
       <c r="I504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="n">
+        <v>352.7166666666667</v>
+      </c>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="n">
+        <v>342.0755555555555</v>
+      </c>
+      <c r="F506" t="n">
+        <v>346.5818181818182</v>
+      </c>
+      <c r="G506" t="n">
+        <v>352.9166666666667</v>
+      </c>
+      <c r="H506" t="n">
+        <v>387.1318181818182</v>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>414.52</v>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="n">
+        <v>336.76</v>
+      </c>
+      <c r="E507" t="n">
+        <v>335.4455555555556</v>
+      </c>
+      <c r="F507" t="n">
+        <v>347.7809090909091</v>
+      </c>
+      <c r="G507" t="n">
+        <v>354.4366666666667</v>
+      </c>
+      <c r="H507" t="n">
+        <v>364.1909090909091</v>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>428.79</v>
+      </c>
+      <c r="C508" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="D508" t="n">
+        <v>343.96</v>
+      </c>
+      <c r="E508" t="n">
+        <v>354.2733333333333</v>
+      </c>
+      <c r="F508" t="n">
+        <v>350.6081818181818</v>
+      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>391.22</v>
+      </c>
+      <c r="C509" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="D509" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="E509" t="n">
+        <v>375.1066666666667</v>
+      </c>
+      <c r="F509" t="n">
+        <v>362.1327272727273</v>
+      </c>
+      <c r="G509" t="n">
+        <v>379.59</v>
+      </c>
+      <c r="H509" t="n">
+        <v>391.2827272727272</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>581.54</v>
+      </c>
+      <c r="C510" t="n">
+        <v>512.87</v>
+      </c>
+      <c r="D510" t="n">
+        <v>468.68</v>
+      </c>
+      <c r="E510" t="n">
+        <v>351.3211111111111</v>
+      </c>
+      <c r="F510" t="n">
+        <v>348.3972727272728</v>
+      </c>
+      <c r="G510" t="n">
+        <v>358.1733333333333</v>
+      </c>
+      <c r="H510" t="n">
+        <v>382.2072727272728</v>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>583</v>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="n">
+        <v>507.93</v>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="n">
+        <v>362.8466666666667</v>
+      </c>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14565,7 +14764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19913,6 +20112,76 @@
       </c>
       <c r="B534" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -20081,28 +20350,28 @@
         <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.339130786995897</v>
+        <v>-4.080988439445524</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2459625146438509</v>
+        <v>0.217531730674382</v>
       </c>
       <c r="M2" t="n">
-        <v>42.44836409629436</v>
+        <v>43.30854839967405</v>
       </c>
       <c r="N2" t="n">
-        <v>2751.208341746556</v>
+        <v>2919.087948636582</v>
       </c>
       <c r="O2" t="n">
-        <v>52.45196222970648</v>
+        <v>54.02858455148147</v>
       </c>
       <c r="P2" t="n">
-        <v>531.3068039276133</v>
+        <v>528.5365986095875</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20158,28 +20427,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.359001348614135</v>
+        <v>-3.254772358039395</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1057481453595721</v>
+        <v>0.100251334088416</v>
       </c>
       <c r="M3" t="n">
-        <v>43.06593255850279</v>
+        <v>43.54287999319086</v>
       </c>
       <c r="N3" t="n">
-        <v>4709.580163687565</v>
+        <v>4742.115534966781</v>
       </c>
       <c r="O3" t="n">
-        <v>68.62638096014946</v>
+        <v>68.86302008310977</v>
       </c>
       <c r="P3" t="n">
-        <v>450.8075242064803</v>
+        <v>449.6903174686859</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20235,28 +20504,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6371908871479612</v>
+        <v>-0.5202997846162405</v>
       </c>
       <c r="J4" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03437500914299063</v>
+        <v>0.02036688456267866</v>
       </c>
       <c r="M4" t="n">
-        <v>16.95042322854415</v>
+        <v>17.66785731002796</v>
       </c>
       <c r="N4" t="n">
-        <v>569.1598152368731</v>
+        <v>659.1007246150057</v>
       </c>
       <c r="O4" t="n">
-        <v>23.85707055019273</v>
+        <v>25.67295706799288</v>
       </c>
       <c r="P4" t="n">
-        <v>381.9444602661625</v>
+        <v>380.712347020889</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20312,28 +20581,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4717968253688838</v>
+        <v>-0.5095786317693214</v>
       </c>
       <c r="J5" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02721362940697647</v>
+        <v>0.03204965312250951</v>
       </c>
       <c r="M5" t="n">
-        <v>14.35403394704133</v>
+        <v>14.37575414472333</v>
       </c>
       <c r="N5" t="n">
-        <v>419.5882260943638</v>
+        <v>419.0596391284413</v>
       </c>
       <c r="O5" t="n">
-        <v>20.48385281372535</v>
+        <v>20.4709462196656</v>
       </c>
       <c r="P5" t="n">
-        <v>378.0200057179775</v>
+        <v>378.3973700258583</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20389,28 +20658,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3179150611458348</v>
+        <v>-0.3528849646986029</v>
       </c>
       <c r="J6" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K6" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02620352264330073</v>
+        <v>0.03247646160605033</v>
       </c>
       <c r="M6" t="n">
-        <v>10.88870955404248</v>
+        <v>10.91641437948782</v>
       </c>
       <c r="N6" t="n">
-        <v>201.3535725498966</v>
+        <v>201.6216894289714</v>
       </c>
       <c r="O6" t="n">
-        <v>14.18991094228208</v>
+        <v>14.19935524694595</v>
       </c>
       <c r="P6" t="n">
-        <v>373.224303900544</v>
+        <v>373.5645240155327</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20466,28 +20735,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000626182939683259</v>
+        <v>-0.03206357353967994</v>
       </c>
       <c r="J7" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>1.179354464087012e-07</v>
+        <v>0.000312531682814865</v>
       </c>
       <c r="M7" t="n">
-        <v>10.6727840653539</v>
+        <v>10.72802211858174</v>
       </c>
       <c r="N7" t="n">
-        <v>177.4094068085684</v>
+        <v>178.009277926622</v>
       </c>
       <c r="O7" t="n">
-        <v>13.31951225865904</v>
+        <v>13.34201176459615</v>
       </c>
       <c r="P7" t="n">
-        <v>371.7101197276761</v>
+        <v>372.0332880568402</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20543,28 +20812,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06301989226565216</v>
+        <v>0.05701183431441417</v>
       </c>
       <c r="J8" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001944027091183465</v>
+        <v>0.001605635802567451</v>
       </c>
       <c r="M8" t="n">
-        <v>7.935315983515023</v>
+        <v>7.934537737053466</v>
       </c>
       <c r="N8" t="n">
-        <v>111.1297178318098</v>
+        <v>111.1788133972238</v>
       </c>
       <c r="O8" t="n">
-        <v>10.5418080912057</v>
+        <v>10.54413644625409</v>
       </c>
       <c r="P8" t="n">
-        <v>382.613519368556</v>
+        <v>382.672806450609</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20601,7 +20870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39241,6 +39510,271 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-36.546680671320324,174.7082157147359</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-36.54530419907273,174.70880433471427</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-36.54597929470599,174.70847518986568</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-36.54668105047598,174.70821789871027</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-36.54742993780352,174.7085201255867</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-36.543412461146346,174.71036231817376</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-36.544641993049034,174.7090993878695</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-36.54528048523814,174.70873636193934</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-36.545983345119524,174.70848760701378</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-36.546683932057604,174.70823449691628</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-36.54741479771074,174.70826456615973</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-36.5434405025334,174.71051786942095</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-36.54398371866648,174.70943237879763</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-36.54466214223444,174.70917583294437</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-36.54534782733712,174.7089293901443</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-36.545992895369054,174.70851688475224</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-36.54336667483659,174.71010833493273</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-36.544019433086795,174.70962494397727</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-36.544723457016616,174.70940845978754</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-36.545422342414966,174.70914298030408</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-36.54603182407495,174.70863622691132</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-36.546731616837704,174.70850916827163</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-36.547432677180545,174.70856636630606</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-36.54374065233353,174.71218293925688</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-36.54431634113565,174.71122588655746</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-36.54501116294522,174.71050003753965</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-36.54533726802192,174.7088991230269</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-36.54598542713596,174.70849398974843</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-36.54669101593582,174.70827530084412</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-36.547426687844684,174.70846526663757</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-36.54374352108184,174.71219885422119</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-36.54512099837441,174.710916773621</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-36.54669987550307,174.7083263330634</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -20195,7 +20195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20286,35 +20286,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20373,27 +20378,28 @@
       <c r="P2" t="n">
         <v>528.5365986095875</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.70584385628675 -36.54259781509065, 174.71588991377357 -36.54440878858775)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7058438562867</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.54259781509065</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7158899137736</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.54440878858775</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7108668850302</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.5435033018392</v>
       </c>
     </row>
@@ -20450,27 +20456,28 @@
       <c r="P3" t="n">
         <v>449.6903174686859</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.7056430475756 -36.543280853540374, 174.7156752039462 -36.54514137803523)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7056430475756</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.54328085354037</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7156752039462</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.54514137803523</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7106591257609</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.5442111157878</v>
       </c>
     </row>
@@ -20527,27 +20534,28 @@
       <c r="P4" t="n">
         <v>380.712347020889</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.70552392422738 -36.54369951485913, 174.71530823912116 -36.54627830930548)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7055239242274</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.54369951485913</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7153082391212</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.54627830930548</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7104160816743</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.5449889120823</v>
       </c>
     </row>
@@ -20604,27 +20612,28 @@
       <c r="P5" t="n">
         <v>378.3973700258583</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.70529732473383 -36.544080629117914, 174.7147443266875 -36.54737629062078)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7052973247338</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.54408062911791</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7147443266875</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.54737629062078</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7100208257107</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.54572845986935</v>
       </c>
     </row>
@@ -20681,27 +20690,28 @@
       <c r="P6" t="n">
         <v>373.5645240155327</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.70488622530033 -36.54480851896808, 174.71442849596295 -36.547921034862135)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7048862253003</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.54480851896808</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7144284959629</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.54792103486214</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7096573606316</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.54636477691511</v>
       </c>
     </row>
@@ -20758,27 +20768,28 @@
       <c r="P7" t="n">
         <v>372.0332880568402</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.70436412473794 -36.546011935554034, 174.71442789145658 -36.54775897743813)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7043641247379</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.54601193555403</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7144278914566</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.54775897743813</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7093960080973</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.54688545649608</v>
       </c>
     </row>
@@ -20835,27 +20846,28 @@
       <c r="P8" t="n">
         <v>382.672806450609</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7042075263798 -36.54717437235482, 174.71447462774003 -36.54778254285024)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7042075263798</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.54717437235482</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.71447462774</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.54778254285024</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7093410770599</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.54747845760253</v>
       </c>
     </row>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14701,15 +14701,9 @@
           <t>2025-02-06 22:11:55+00:00</t>
         </is>
       </c>
-      <c r="B510" t="n">
-        <v>581.54</v>
-      </c>
-      <c r="C510" t="n">
-        <v>512.87</v>
-      </c>
-      <c r="D510" t="n">
-        <v>468.68</v>
-      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="n">
         <v>351.3211111111111</v>
       </c>
@@ -14734,13 +14728,9 @@
           <t>2025-02-22 22:11:57+00:00</t>
         </is>
       </c>
-      <c r="B511" t="n">
-        <v>583</v>
-      </c>
+      <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr"/>
-      <c r="D511" t="n">
-        <v>507.93</v>
-      </c>
+      <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="n">
@@ -14748,6 +14738,153 @@
       </c>
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="n">
+        <v>406.39</v>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>389.83</v>
+      </c>
+      <c r="C513" t="n">
+        <v>352.6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>360.65</v>
+      </c>
+      <c r="E513" t="n">
+        <v>358.9988888888889</v>
+      </c>
+      <c r="F513" t="n">
+        <v>363.1381818181818</v>
+      </c>
+      <c r="G513" t="n">
+        <v>363.2166666666667</v>
+      </c>
+      <c r="H513" t="n">
+        <v>386.5881818181818</v>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="n">
+        <v>349.1377777777778</v>
+      </c>
+      <c r="F514" t="n">
+        <v>358.1236363636364</v>
+      </c>
+      <c r="G514" t="n">
+        <v>349.0733333333333</v>
+      </c>
+      <c r="H514" t="n">
+        <v>360.7136363636364</v>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>438.24</v>
+      </c>
+      <c r="C515" t="n">
+        <v>345.6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>347.16</v>
+      </c>
+      <c r="E515" t="n">
+        <v>354.4233333333333</v>
+      </c>
+      <c r="F515" t="n">
+        <v>353.8736363636364</v>
+      </c>
+      <c r="G515" t="n">
+        <v>353.74</v>
+      </c>
+      <c r="H515" t="n">
+        <v>376.3436363636364</v>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>417.64</v>
+      </c>
+      <c r="C516" t="n">
+        <v>345.85</v>
+      </c>
+      <c r="D516" t="n">
+        <v>340.7</v>
+      </c>
+      <c r="E516" t="n">
+        <v>338.9077777777778</v>
+      </c>
+      <c r="F516" t="n">
+        <v>351.5354545454546</v>
+      </c>
+      <c r="G516" t="n">
+        <v>354.4733333333333</v>
+      </c>
+      <c r="H516" t="n">
+        <v>371.0854545454546</v>
+      </c>
+      <c r="I516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14764,7 +14901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20182,6 +20319,56 @@
       </c>
       <c r="B541" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -20355,28 +20542,28 @@
         <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.080988439445524</v>
+        <v>-4.376941335851392</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.217531730674382</v>
+        <v>0.2586145002285309</v>
       </c>
       <c r="M2" t="n">
-        <v>43.30854839967405</v>
+        <v>41.72956194254103</v>
       </c>
       <c r="N2" t="n">
-        <v>2919.087948636582</v>
+        <v>2688.869125344027</v>
       </c>
       <c r="O2" t="n">
-        <v>54.02858455148147</v>
+        <v>51.85430671934614</v>
       </c>
       <c r="P2" t="n">
-        <v>528.5365986095875</v>
+        <v>531.7119442905409</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20433,28 +20620,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.254772358039395</v>
+        <v>-3.412001654018884</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.100251334088416</v>
+        <v>0.1124486266024487</v>
       </c>
       <c r="M3" t="n">
-        <v>43.54287999319086</v>
+        <v>42.28666719693144</v>
       </c>
       <c r="N3" t="n">
-        <v>4742.115534966781</v>
+        <v>4616.152843036904</v>
       </c>
       <c r="O3" t="n">
-        <v>68.86302008310977</v>
+        <v>67.94227581584903</v>
       </c>
       <c r="P3" t="n">
-        <v>449.6903174686859</v>
+        <v>451.3784085423987</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20511,28 +20698,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5202997846162405</v>
+        <v>-0.6960928733754947</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02036688456267866</v>
+        <v>0.04169851719476969</v>
       </c>
       <c r="M4" t="n">
-        <v>17.66785731002796</v>
+        <v>16.91952268468017</v>
       </c>
       <c r="N4" t="n">
-        <v>659.1007246150057</v>
+        <v>565.4532135108785</v>
       </c>
       <c r="O4" t="n">
-        <v>25.67295706799288</v>
+        <v>23.77926015482564</v>
       </c>
       <c r="P4" t="n">
-        <v>380.712347020889</v>
+        <v>382.5647512271922</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20589,28 +20776,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5095786317693214</v>
+        <v>-0.540801518671512</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03204965312250951</v>
+        <v>0.03645374338761342</v>
       </c>
       <c r="M5" t="n">
-        <v>14.37575414472333</v>
+        <v>14.35875754005672</v>
       </c>
       <c r="N5" t="n">
-        <v>419.0596391284413</v>
+        <v>417.4477212325154</v>
       </c>
       <c r="O5" t="n">
-        <v>20.4709462196656</v>
+        <v>20.4315374172507</v>
       </c>
       <c r="P5" t="n">
-        <v>378.3973700258583</v>
+        <v>378.7133453559827</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20667,28 +20854,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3528849646986029</v>
+        <v>-0.3683949825505112</v>
       </c>
       <c r="J6" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03247646160605033</v>
+        <v>0.03587963225298729</v>
       </c>
       <c r="M6" t="n">
-        <v>10.91641437948782</v>
+        <v>10.87851337636146</v>
       </c>
       <c r="N6" t="n">
-        <v>201.6216894289714</v>
+        <v>200.3680141643516</v>
       </c>
       <c r="O6" t="n">
-        <v>14.19935524694595</v>
+        <v>14.15514090937818</v>
       </c>
       <c r="P6" t="n">
-        <v>373.5645240155327</v>
+        <v>373.717191749185</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20745,28 +20932,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03206357353967994</v>
+        <v>-0.06210008706765168</v>
       </c>
       <c r="J7" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000312531682814865</v>
+        <v>0.00117599801811874</v>
       </c>
       <c r="M7" t="n">
-        <v>10.72802211858174</v>
+        <v>10.78322371897944</v>
       </c>
       <c r="N7" t="n">
-        <v>178.009277926622</v>
+        <v>178.9978487091156</v>
       </c>
       <c r="O7" t="n">
-        <v>13.34201176459615</v>
+        <v>13.379007762503</v>
       </c>
       <c r="P7" t="n">
-        <v>372.0332880568402</v>
+        <v>372.3341103072219</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20823,28 +21010,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05701183431441417</v>
+        <v>0.04724928651740694</v>
       </c>
       <c r="J8" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001605635802567451</v>
+        <v>0.001096633539599767</v>
       </c>
       <c r="M8" t="n">
-        <v>7.934537737053466</v>
+        <v>8.011974726683274</v>
       </c>
       <c r="N8" t="n">
-        <v>111.1788133972238</v>
+        <v>113.1573205635328</v>
       </c>
       <c r="O8" t="n">
-        <v>10.54413644625409</v>
+        <v>10.63754297587243</v>
       </c>
       <c r="P8" t="n">
-        <v>382.672806450609</v>
+        <v>382.7713233361508</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20882,7 +21069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39715,21 +39902,9 @@
           <t>2025-02-06 22:11:55+00:00</t>
         </is>
       </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>-36.54374065233353,174.71218293925688</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>-36.54431634113565,174.71122588655746</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>-36.54501116294522,174.71050003753965</t>
-        </is>
-      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
           <t>-36.54533726802192,174.7088991230269</t>
@@ -39762,17 +39937,9 @@
           <t>2025-02-22 22:11:57+00:00</t>
         </is>
       </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>-36.54374352108184,174.71219885422119</t>
-        </is>
-      </c>
+      <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>-36.54512099837441,174.710916773621</t>
-        </is>
-      </c>
+      <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
@@ -39782,6 +39949,205 @@
       </c>
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-36.54744264701678,174.7087346598612</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-36.54336394336127,174.71009318315163</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-36.54399278357753,174.70948125485072</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-36.54470884897281,174.70935303702078</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-36.545364729378434,174.7089778380534</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-36.546035220389136,174.70864663887767</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-36.5467005769372,174.70833037341788</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-36.54742957903139,174.7085140695312</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-36.54532945881307,174.70887673880708</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-36.54601828180026,174.70859471085168</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-36.546673764361074,174.70817593000598</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-36.5474125028002,174.708225829697</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-36.54345907222432,174.7106208799401</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-36.54397865119061,174.7094050561089</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-36.54467109741186,174.70920980854538</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-36.54534836384709,174.70893092799204</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-36.54600392574452,174.70855070007815</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-36.54668261133298,174.70822688940504</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-36.54742281809873,174.70839994631328</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-36.543418592146956,174.710396327968</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-36.54397915591957,174.7094077774921</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-36.544653019137264,174.70914122030854</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-36.54529286873711,174.70877185768876</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-36.54599602760362,174.70852648709885</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-36.546684001569425,174.7082348973116</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-36.54741934789596,174.7083413706966</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14887,6 +14887,29 @@
       <c r="I516" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="H517" t="n">
+        <v>394.3927272727273</v>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14901,7 +14924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20369,6 +20392,16 @@
       </c>
       <c r="B546" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -20545,7 +20578,7 @@
         <v>-4.376941335851392</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K2" t="n">
         <v>229</v>
@@ -20623,7 +20656,7 @@
         <v>-3.412001654018884</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K3" t="n">
         <v>240</v>
@@ -20701,7 +20734,7 @@
         <v>-0.6960928733754947</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K4" t="n">
         <v>323</v>
@@ -20779,7 +20812,7 @@
         <v>-0.540801518671512</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K5" t="n">
         <v>362</v>
@@ -20857,7 +20890,7 @@
         <v>-0.3683949825505112</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K6" t="n">
         <v>390</v>
@@ -20932,28 +20965,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06210008706765168</v>
+        <v>-0.06179085001147971</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00117599801811874</v>
+        <v>0.001169975746586838</v>
       </c>
       <c r="M7" t="n">
-        <v>10.78322371897944</v>
+        <v>10.75804690147881</v>
       </c>
       <c r="N7" t="n">
-        <v>178.9978487091156</v>
+        <v>178.5547627489253</v>
       </c>
       <c r="O7" t="n">
-        <v>13.379007762503</v>
+        <v>13.36243850309236</v>
       </c>
       <c r="P7" t="n">
-        <v>372.3341103072219</v>
+        <v>372.3309984404673</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21010,28 +21043,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04724928651740694</v>
+        <v>0.05239428284096951</v>
       </c>
       <c r="J8" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001096633539599767</v>
+        <v>0.001351379375461814</v>
       </c>
       <c r="M8" t="n">
-        <v>8.011974726683274</v>
+        <v>8.019799842358818</v>
       </c>
       <c r="N8" t="n">
-        <v>113.1573205635328</v>
+        <v>113.1418067380195</v>
       </c>
       <c r="O8" t="n">
-        <v>10.63754297587243</v>
+        <v>10.63681374933394</v>
       </c>
       <c r="P8" t="n">
-        <v>382.7713233361508</v>
+        <v>382.7194927857046</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21069,7 +21102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40153,6 +40186,33 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-36.54671609060226,174.70841973442856</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-36.54743472960167,174.70860101140212</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14900,7 +14900,9 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
+      <c r="F517" t="n">
+        <v>395.0927272727273</v>
+      </c>
       <c r="G517" t="n">
         <v>371.4</v>
       </c>
@@ -14908,6 +14910,37 @@
         <v>394.3927272727273</v>
       </c>
       <c r="I517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="n">
+        <v>357.98</v>
+      </c>
+      <c r="D518" t="n">
+        <v>363.78</v>
+      </c>
+      <c r="E518" t="n">
+        <v>359.9688888888889</v>
+      </c>
+      <c r="F518" t="n">
+        <v>359.4672727272728</v>
+      </c>
+      <c r="G518" t="n">
+        <v>358.5566666666667</v>
+      </c>
+      <c r="H518" t="n">
+        <v>377.0072727272727</v>
+      </c>
+      <c r="I518" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14924,7 +14957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:B548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20402,6 +20435,16 @@
       </c>
       <c r="B547" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -20578,7 +20621,7 @@
         <v>-4.376941335851392</v>
       </c>
       <c r="J2" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
         <v>229</v>
@@ -20653,28 +20696,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.412001654018884</v>
+        <v>-3.416375014528518</v>
       </c>
       <c r="J3" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1124486266024487</v>
+        <v>0.113477558253432</v>
       </c>
       <c r="M3" t="n">
-        <v>42.28666719693144</v>
+        <v>42.12044404819117</v>
       </c>
       <c r="N3" t="n">
-        <v>4616.152843036904</v>
+        <v>4597.122885992589</v>
       </c>
       <c r="O3" t="n">
-        <v>67.94227581584903</v>
+        <v>67.80208614779185</v>
       </c>
       <c r="P3" t="n">
-        <v>451.3784085423987</v>
+        <v>451.4260066242012</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20731,28 +20774,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6960928733754947</v>
+        <v>-0.6966093499321426</v>
       </c>
       <c r="J4" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04169851719476969</v>
+        <v>0.04200186064762279</v>
       </c>
       <c r="M4" t="n">
-        <v>16.91952268468017</v>
+        <v>16.86985068123573</v>
       </c>
       <c r="N4" t="n">
-        <v>565.4532135108785</v>
+        <v>563.7102132259638</v>
       </c>
       <c r="O4" t="n">
-        <v>23.77926015482564</v>
+        <v>23.74258227796555</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5647512271922</v>
+        <v>382.5702631109324</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20809,28 +20852,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.540801518671512</v>
+        <v>-0.5433257970693004</v>
       </c>
       <c r="J5" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03645374338761342</v>
+        <v>0.03696995370651446</v>
       </c>
       <c r="M5" t="n">
-        <v>14.35875754005672</v>
+        <v>14.33072228599346</v>
       </c>
       <c r="N5" t="n">
-        <v>417.4477212325154</v>
+        <v>416.3610266011887</v>
       </c>
       <c r="O5" t="n">
-        <v>20.4315374172507</v>
+        <v>20.40492652770866</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7133453559827</v>
+        <v>378.7390923910714</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20887,28 +20930,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3683949825505112</v>
+        <v>-0.3556514635713588</v>
       </c>
       <c r="J6" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03587963225298729</v>
+        <v>0.03346451274777296</v>
       </c>
       <c r="M6" t="n">
-        <v>10.87851337636146</v>
+        <v>10.91914528648558</v>
       </c>
       <c r="N6" t="n">
-        <v>200.3680141643516</v>
+        <v>201.8164710283352</v>
       </c>
       <c r="O6" t="n">
-        <v>14.15514090937818</v>
+        <v>14.2062124096585</v>
       </c>
       <c r="P6" t="n">
-        <v>373.717191749185</v>
+        <v>373.5913179410491</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20965,28 +21008,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06179085001147971</v>
+        <v>-0.06748291803196885</v>
       </c>
       <c r="J7" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001169975746586838</v>
+        <v>0.001399077705903307</v>
       </c>
       <c r="M7" t="n">
-        <v>10.75804690147881</v>
+        <v>10.76246735365403</v>
       </c>
       <c r="N7" t="n">
-        <v>178.5547627489253</v>
+        <v>178.4774711933285</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36243850309236</v>
+        <v>13.35954606988308</v>
       </c>
       <c r="P7" t="n">
-        <v>372.3309984404673</v>
+        <v>372.3884769727945</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21043,28 +21086,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05239428284096951</v>
+        <v>0.04890666637593984</v>
       </c>
       <c r="J8" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K8" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001351379375461814</v>
+        <v>0.001182183892222022</v>
       </c>
       <c r="M8" t="n">
-        <v>8.019799842358818</v>
+        <v>8.01617931305827</v>
       </c>
       <c r="N8" t="n">
-        <v>113.1418067380195</v>
+        <v>112.9683557149456</v>
       </c>
       <c r="O8" t="n">
-        <v>10.63681374933394</v>
+        <v>10.62865728655062</v>
       </c>
       <c r="P8" t="n">
-        <v>382.7194927857046</v>
+        <v>382.7547567991377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21102,7 +21145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40196,7 +40239,11 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-36.54614315881999,174.708977544054</t>
+        </is>
+      </c>
       <c r="G517" t="inlineStr">
         <is>
           <t>-36.54671609060226,174.70841973442856</t>
@@ -40208,6 +40255,49 @@
         </is>
       </c>
       <c r="I517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-36.54400364529269,174.7095398190442</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-36.5447176082053,174.70938626944368</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-36.54536819880506,174.70898778280662</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-36.54602282045996,174.70860862484923</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-36.546691742648655,174.7082794867961</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-36.547423256071795,174.70840733915594</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14941,6 +14941,37 @@
         <v>377.0072727272727</v>
       </c>
       <c r="I518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="n">
+        <v>349.89</v>
+      </c>
+      <c r="D519" t="n">
+        <v>356.74</v>
+      </c>
+      <c r="E519" t="n">
+        <v>360.8233333333333</v>
+      </c>
+      <c r="F519" t="n">
+        <v>355.6218181818182</v>
+      </c>
+      <c r="G519" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="H519" t="n">
+        <v>382.6018181818182</v>
+      </c>
+      <c r="I519" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14957,7 +14988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B548"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20445,6 +20476,16 @@
       </c>
       <c r="B548" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -20621,7 +20662,7 @@
         <v>-4.376941335851392</v>
       </c>
       <c r="J2" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K2" t="n">
         <v>229</v>
@@ -20696,28 +20737,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.416375014528518</v>
+        <v>-3.426928925644656</v>
       </c>
       <c r="J3" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.113477558253432</v>
+        <v>0.114862022115927</v>
       </c>
       <c r="M3" t="n">
-        <v>42.12044404819117</v>
+        <v>41.96846341058637</v>
       </c>
       <c r="N3" t="n">
-        <v>4597.122885992589</v>
+        <v>4578.857481735889</v>
       </c>
       <c r="O3" t="n">
-        <v>67.80208614779185</v>
+        <v>67.66725560960698</v>
       </c>
       <c r="P3" t="n">
-        <v>451.4260066242012</v>
+        <v>451.5411205115847</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20774,28 +20815,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6966093499321426</v>
+        <v>-0.701342128997879</v>
       </c>
       <c r="J4" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04200186064762279</v>
+        <v>0.04278418985454702</v>
       </c>
       <c r="M4" t="n">
-        <v>16.86985068123573</v>
+        <v>16.84113325262327</v>
       </c>
       <c r="N4" t="n">
-        <v>563.7102132259638</v>
+        <v>562.163830872933</v>
       </c>
       <c r="O4" t="n">
-        <v>23.74258227796555</v>
+        <v>23.70999432460778</v>
       </c>
       <c r="P4" t="n">
-        <v>382.5702631109324</v>
+        <v>382.6208770836254</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20852,28 +20893,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5433257970693004</v>
+        <v>-0.5453608587323473</v>
       </c>
       <c r="J5" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K5" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03696995370651446</v>
+        <v>0.03742838130886816</v>
       </c>
       <c r="M5" t="n">
-        <v>14.33072228599346</v>
+        <v>14.30057633481797</v>
       </c>
       <c r="N5" t="n">
-        <v>416.3610266011887</v>
+        <v>415.2585307519257</v>
       </c>
       <c r="O5" t="n">
-        <v>20.40492652770866</v>
+        <v>20.37789318727345</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7390923910714</v>
+        <v>378.7598947684283</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20930,28 +20971,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3556514635713588</v>
+        <v>-0.3599643503271807</v>
       </c>
       <c r="J6" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K6" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03346451274777296</v>
+        <v>0.03439550454372542</v>
       </c>
       <c r="M6" t="n">
-        <v>10.91914528648558</v>
+        <v>10.91178531966186</v>
       </c>
       <c r="N6" t="n">
-        <v>201.8164710283352</v>
+        <v>201.4981106590072</v>
       </c>
       <c r="O6" t="n">
-        <v>14.2062124096585</v>
+        <v>14.19500301722431</v>
       </c>
       <c r="P6" t="n">
-        <v>373.5913179410491</v>
+        <v>373.6341807409003</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21008,28 +21049,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06748291803196885</v>
+        <v>-0.06989896680187496</v>
       </c>
       <c r="J7" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001399077705903307</v>
+        <v>0.001507641852692365</v>
       </c>
       <c r="M7" t="n">
-        <v>10.76246735365403</v>
+        <v>10.74898729069882</v>
       </c>
       <c r="N7" t="n">
-        <v>178.4774711933285</v>
+        <v>178.1027361395283</v>
       </c>
       <c r="O7" t="n">
-        <v>13.35954606988308</v>
+        <v>13.3455137083414</v>
       </c>
       <c r="P7" t="n">
-        <v>372.3884769727945</v>
+        <v>372.4129281140866</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21086,28 +21127,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04890666637593984</v>
+        <v>0.04821027276180583</v>
       </c>
       <c r="J8" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K8" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001182183892222022</v>
+        <v>0.001154515626591524</v>
       </c>
       <c r="M8" t="n">
-        <v>8.01617931305827</v>
+        <v>7.998010775259821</v>
       </c>
       <c r="N8" t="n">
-        <v>112.9683557149456</v>
+        <v>112.6667748847081</v>
       </c>
       <c r="O8" t="n">
-        <v>10.62865728655062</v>
+        <v>10.61446064973196</v>
       </c>
       <c r="P8" t="n">
-        <v>382.7547567991377</v>
+        <v>382.7618147198617</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21145,7 +21186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40303,6 +40344,49 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-36.543987312330756,174.70945175504903</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-36.54469790691506,174.70931152304573</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-36.5453712549201,174.70899654284767</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-36.546009830921975,174.7085688033313</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-36.54670482977353,174.70835487034338</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-36.547426948226295,174.70846966183476</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14830,9 +14830,7 @@
           <t>2025-04-04 22:05:27+00:00</t>
         </is>
       </c>
-      <c r="B515" t="n">
-        <v>438.24</v>
-      </c>
+      <c r="B515" t="inlineStr"/>
       <c r="C515" t="n">
         <v>345.6</v>
       </c>
@@ -14972,6 +14970,37 @@
         <v>382.6018181818182</v>
       </c>
       <c r="I519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="n">
+        <v>334.17</v>
+      </c>
+      <c r="D520" t="n">
+        <v>337.87</v>
+      </c>
+      <c r="E520" t="n">
+        <v>344.5033333333333</v>
+      </c>
+      <c r="F520" t="n">
+        <v>346.8036363636364</v>
+      </c>
+      <c r="G520" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="H520" t="n">
+        <v>372.6136363636364</v>
+      </c>
+      <c r="I520" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14988,7 +15017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20486,6 +20515,16 @@
       </c>
       <c r="B549" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -20659,28 +20698,28 @@
         <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.376941335851392</v>
+        <v>-4.393477656907527</v>
       </c>
       <c r="J2" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2586145002285309</v>
+        <v>0.2585016693472861</v>
       </c>
       <c r="M2" t="n">
-        <v>41.72956194254103</v>
+        <v>41.82127270167123</v>
       </c>
       <c r="N2" t="n">
-        <v>2688.869125344027</v>
+        <v>2699.123596638447</v>
       </c>
       <c r="O2" t="n">
-        <v>51.85430671934614</v>
+        <v>51.9530903473359</v>
       </c>
       <c r="P2" t="n">
-        <v>531.7119442905409</v>
+        <v>531.8904494992739</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20737,28 +20776,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.426928925644656</v>
+        <v>-3.449459579988401</v>
       </c>
       <c r="J3" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.114862022115927</v>
+        <v>0.11691845760195</v>
       </c>
       <c r="M3" t="n">
-        <v>41.96846341058637</v>
+        <v>41.84210052811318</v>
       </c>
       <c r="N3" t="n">
-        <v>4578.857481735889</v>
+        <v>4563.350662338117</v>
       </c>
       <c r="O3" t="n">
-        <v>67.66725560960698</v>
+        <v>67.55257702218411</v>
       </c>
       <c r="P3" t="n">
-        <v>451.5411205115847</v>
+        <v>451.7879283782995</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20815,28 +20854,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.701342128997879</v>
+        <v>-0.7173574457571961</v>
       </c>
       <c r="J4" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04278418985454702</v>
+        <v>0.04476908946559799</v>
       </c>
       <c r="M4" t="n">
-        <v>16.84113325262327</v>
+        <v>16.86707326512854</v>
       </c>
       <c r="N4" t="n">
-        <v>562.163830872933</v>
+        <v>562.5887024321604</v>
       </c>
       <c r="O4" t="n">
-        <v>23.70999432460778</v>
+        <v>23.71895238901078</v>
       </c>
       <c r="P4" t="n">
-        <v>382.6208770836254</v>
+        <v>382.7928604782434</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20893,28 +20932,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5453608587323473</v>
+        <v>-0.5558825173323151</v>
       </c>
       <c r="J5" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03742838130886816</v>
+        <v>0.03893446059176597</v>
       </c>
       <c r="M5" t="n">
-        <v>14.30057633481797</v>
+        <v>14.30881657426676</v>
       </c>
       <c r="N5" t="n">
-        <v>415.2585307519257</v>
+        <v>415.2226287374613</v>
       </c>
       <c r="O5" t="n">
-        <v>20.37789318727345</v>
+        <v>20.37701226228863</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7598947684283</v>
+        <v>378.8679126906818</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20971,28 +21010,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3599643503271807</v>
+        <v>-0.3685566973875947</v>
       </c>
       <c r="J6" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03439550454372542</v>
+        <v>0.03604812044605543</v>
       </c>
       <c r="M6" t="n">
-        <v>10.91178531966186</v>
+        <v>10.92434570458431</v>
       </c>
       <c r="N6" t="n">
-        <v>201.4981106590072</v>
+        <v>201.7588264928941</v>
       </c>
       <c r="O6" t="n">
-        <v>14.19500301722431</v>
+        <v>14.20418341520885</v>
       </c>
       <c r="P6" t="n">
-        <v>373.6341807409003</v>
+        <v>373.7199368325874</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21049,28 +21088,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06989896680187496</v>
+        <v>-0.0790858066338984</v>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001507641852692365</v>
+        <v>0.001928333311476904</v>
       </c>
       <c r="M7" t="n">
-        <v>10.74898729069882</v>
+        <v>10.77193164297689</v>
       </c>
       <c r="N7" t="n">
-        <v>178.1027361395283</v>
+        <v>178.6132366410831</v>
       </c>
       <c r="O7" t="n">
-        <v>13.3455137083414</v>
+        <v>13.36462631879706</v>
       </c>
       <c r="P7" t="n">
-        <v>372.4129281140866</v>
+        <v>372.5063091999648</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21127,28 +21166,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04821027276180583</v>
+        <v>0.04259661718375064</v>
       </c>
       <c r="J8" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001154515626591524</v>
+        <v>0.0009032905496144661</v>
       </c>
       <c r="M8" t="n">
-        <v>7.998010775259821</v>
+        <v>8.005138133256878</v>
       </c>
       <c r="N8" t="n">
-        <v>112.6667748847081</v>
+        <v>112.7106958804424</v>
       </c>
       <c r="O8" t="n">
-        <v>10.61446064973196</v>
+        <v>10.61652937077096</v>
       </c>
       <c r="P8" t="n">
-        <v>382.7618147198617</v>
+        <v>382.8189741807108</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21186,7 +21225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40182,11 +40221,7 @@
           <t>2025-04-04 22:05:27+00:00</t>
         </is>
       </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>-36.54345907222432,174.7106208799401</t>
-        </is>
-      </c>
+      <c r="B515" t="inlineStr"/>
       <c r="C515" t="inlineStr">
         <is>
           <t>-36.54397865119061,174.7094050561089</t>
@@ -40387,6 +40422,49 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-36.543955574915366,174.70928063450467</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-36.54464509938506,174.70911117314938</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-36.54531288261036,174.70882922503998</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-36.545980043986525,174.70847748689678</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-36.54667722732129,174.70819587696946</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-36.547420356441634,174.70835839448796</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15001,6 +15001,68 @@
         <v>372.6136363636364</v>
       </c>
       <c r="I520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="n">
+        <v>341.88</v>
+      </c>
+      <c r="E521" t="n">
+        <v>343.67</v>
+      </c>
+      <c r="F521" t="n">
+        <v>354.0536363636364</v>
+      </c>
+      <c r="G521" t="n">
+        <v>351.62</v>
+      </c>
+      <c r="H521" t="n">
+        <v>369.7936363636364</v>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="C522" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="D522" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="E522" t="n">
+        <v>345.73</v>
+      </c>
+      <c r="F522" t="n">
+        <v>351.3963636363636</v>
+      </c>
+      <c r="G522" t="n">
+        <v>358.43</v>
+      </c>
+      <c r="H522" t="n">
+        <v>371.9263636363637</v>
+      </c>
+      <c r="I522" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15017,7 +15079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20525,6 +20587,36 @@
       </c>
       <c r="B550" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -20698,28 +20790,28 @@
         <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.393477656907527</v>
+        <v>-4.42670504234768</v>
       </c>
       <c r="J2" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2585016693472861</v>
+        <v>0.2627879748707744</v>
       </c>
       <c r="M2" t="n">
-        <v>41.82127270167123</v>
+        <v>41.77732194577676</v>
       </c>
       <c r="N2" t="n">
-        <v>2699.123596638447</v>
+        <v>2693.112896223256</v>
       </c>
       <c r="O2" t="n">
-        <v>51.9530903473359</v>
+        <v>51.89521072529965</v>
       </c>
       <c r="P2" t="n">
-        <v>531.8904494992739</v>
+        <v>532.2547075621011</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20776,28 +20868,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.449459579988401</v>
+        <v>-3.463338933364529</v>
       </c>
       <c r="J3" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K3" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.11691845760195</v>
+        <v>0.1185204159850656</v>
       </c>
       <c r="M3" t="n">
-        <v>41.84210052811318</v>
+        <v>41.69904181478164</v>
       </c>
       <c r="N3" t="n">
-        <v>4563.350662338117</v>
+        <v>4545.922770833071</v>
       </c>
       <c r="O3" t="n">
-        <v>67.55257702218411</v>
+        <v>67.42345860924868</v>
       </c>
       <c r="P3" t="n">
-        <v>451.7879283782995</v>
+        <v>451.9404351998688</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20854,28 +20946,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7173574457571961</v>
+        <v>-0.7407063147909341</v>
       </c>
       <c r="J4" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04476908946559799</v>
+        <v>0.04794902068144635</v>
       </c>
       <c r="M4" t="n">
-        <v>16.86707326512854</v>
+        <v>16.87620436530963</v>
       </c>
       <c r="N4" t="n">
-        <v>562.5887024321604</v>
+        <v>561.5116855947788</v>
       </c>
       <c r="O4" t="n">
-        <v>23.71895238901078</v>
+        <v>23.69623779410518</v>
       </c>
       <c r="P4" t="n">
-        <v>382.7928604782434</v>
+        <v>383.0441906035991</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20932,28 +21024,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5558825173323151</v>
+        <v>-0.576285128263862</v>
       </c>
       <c r="J5" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03893446059176597</v>
+        <v>0.04195509274817277</v>
       </c>
       <c r="M5" t="n">
-        <v>14.30881657426676</v>
+        <v>14.32290957293679</v>
       </c>
       <c r="N5" t="n">
-        <v>415.2226287374613</v>
+        <v>415.0561791061933</v>
       </c>
       <c r="O5" t="n">
-        <v>20.37701226228863</v>
+        <v>20.37292760273283</v>
       </c>
       <c r="P5" t="n">
-        <v>378.8679126906818</v>
+        <v>379.077898240236</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21010,28 +21102,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3685566973875947</v>
+        <v>-0.3796583719848029</v>
       </c>
       <c r="J6" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K6" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03604812044605543</v>
+        <v>0.03843563197460509</v>
       </c>
       <c r="M6" t="n">
-        <v>10.92434570458431</v>
+        <v>10.92176667780561</v>
       </c>
       <c r="N6" t="n">
-        <v>201.7588264928941</v>
+        <v>201.398672546302</v>
       </c>
       <c r="O6" t="n">
-        <v>14.20418341520885</v>
+        <v>14.19150001043942</v>
       </c>
       <c r="P6" t="n">
-        <v>373.7199368325874</v>
+        <v>373.8310209487768</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21088,28 +21180,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0790858066338984</v>
+        <v>-0.09333223301219366</v>
       </c>
       <c r="J7" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001928333311476904</v>
+        <v>0.002691582284791161</v>
       </c>
       <c r="M7" t="n">
-        <v>10.77193164297689</v>
+        <v>10.79576460008157</v>
       </c>
       <c r="N7" t="n">
-        <v>178.6132366410831</v>
+        <v>178.9445806696722</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36462631879706</v>
+        <v>13.37701688231245</v>
       </c>
       <c r="P7" t="n">
-        <v>372.5063091999648</v>
+        <v>372.6514747061124</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21166,28 +21258,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04259661718375064</v>
+        <v>0.02986035840431477</v>
       </c>
       <c r="J8" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K8" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009032905496144661</v>
+        <v>0.00044495248179377</v>
       </c>
       <c r="M8" t="n">
-        <v>8.005138133256878</v>
+        <v>8.026882939444612</v>
       </c>
       <c r="N8" t="n">
-        <v>112.7106958804424</v>
+        <v>113.0151605400615</v>
       </c>
       <c r="O8" t="n">
-        <v>10.61652937077096</v>
+        <v>10.63085888063902</v>
       </c>
       <c r="P8" t="n">
-        <v>382.8189741807108</v>
+        <v>382.9490066358696</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21225,7 +21317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40465,6 +40557,92 @@
         </is>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-36.54465632136382,174.70915374880775</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-36.54530990199164,174.7088206814493</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-36.54600453376604,174.7085525640635</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-36.54667859228277,174.70820373927668</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-36.54741849534,174.70832697997258</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-36.54334706319338,174.7099995473466</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-36.54397647076081,174.70939329973385</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-36.54467120935152,174.70921023324044</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-36.54531727007996,174.70884180120655</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-36.545995557768485,174.7085250467468</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-36.54669150251748,174.70827810361197</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-36.54741990286636,174.70835073833902</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15063,6 +15063,39 @@
         <v>371.9263636363637</v>
       </c>
       <c r="I522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>406.92</v>
+      </c>
+      <c r="C523" t="n">
+        <v>346.88</v>
+      </c>
+      <c r="D523" t="n">
+        <v>361.56</v>
+      </c>
+      <c r="E523" t="n">
+        <v>359.0411111111111</v>
+      </c>
+      <c r="F523" t="n">
+        <v>358.3963636363636</v>
+      </c>
+      <c r="G523" t="n">
+        <v>360.4833333333333</v>
+      </c>
+      <c r="H523" t="n">
+        <v>385.7363636363637</v>
+      </c>
+      <c r="I523" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15079,7 +15112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20617,6 +20650,26 @@
       </c>
       <c r="B553" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -20790,28 +20843,28 @@
         <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.42670504234768</v>
+        <v>-4.435916553434896</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2627879748707744</v>
+        <v>0.2653576934198018</v>
       </c>
       <c r="M2" t="n">
-        <v>41.77732194577676</v>
+        <v>41.63378188634958</v>
       </c>
       <c r="N2" t="n">
-        <v>2693.112896223256</v>
+        <v>2681.854023732447</v>
       </c>
       <c r="O2" t="n">
-        <v>51.89521072529965</v>
+        <v>51.78662012269623</v>
       </c>
       <c r="P2" t="n">
-        <v>532.2547075621011</v>
+        <v>532.3558794871855</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20868,28 +20921,28 @@
         <v>0.1206</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.463338933364529</v>
+        <v>-3.475005873275376</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1185204159850656</v>
+        <v>0.1200063001268169</v>
       </c>
       <c r="M3" t="n">
-        <v>41.69904181478164</v>
+        <v>41.55303934212947</v>
       </c>
       <c r="N3" t="n">
-        <v>4545.922770833071</v>
+        <v>4528.277882946266</v>
       </c>
       <c r="O3" t="n">
-        <v>67.42345860924868</v>
+        <v>67.2924801366859</v>
       </c>
       <c r="P3" t="n">
-        <v>451.9404351998688</v>
+        <v>452.0689058525301</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20946,28 +20999,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7407063147909341</v>
+        <v>-0.7420252935102601</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04794902068144635</v>
+        <v>0.04838616683744501</v>
       </c>
       <c r="M4" t="n">
-        <v>16.87620436530963</v>
+        <v>16.83125574974422</v>
       </c>
       <c r="N4" t="n">
-        <v>561.5116855947788</v>
+        <v>559.8198997901553</v>
       </c>
       <c r="O4" t="n">
-        <v>23.69623779410518</v>
+        <v>23.66051351492937</v>
       </c>
       <c r="P4" t="n">
-        <v>383.0441906035991</v>
+        <v>383.0584259118467</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21024,28 +21077,28 @@
         <v>0.0534</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.576285128263862</v>
+        <v>-0.5788889399653754</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04195509274817277</v>
+        <v>0.04253116980349603</v>
       </c>
       <c r="M5" t="n">
-        <v>14.32290957293679</v>
+        <v>14.29582898645638</v>
       </c>
       <c r="N5" t="n">
-        <v>415.0561791061933</v>
+        <v>413.9971629378568</v>
       </c>
       <c r="O5" t="n">
-        <v>20.37292760273283</v>
+        <v>20.34692023225768</v>
       </c>
       <c r="P5" t="n">
-        <v>379.077898240236</v>
+        <v>379.1047697490298</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21102,28 +21155,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3796583719848029</v>
+        <v>-0.3823522140038975</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K6" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03843563197460509</v>
+        <v>0.03914380397079131</v>
       </c>
       <c r="M6" t="n">
-        <v>10.92176667780561</v>
+        <v>10.90696881261146</v>
       </c>
       <c r="N6" t="n">
-        <v>201.398672546302</v>
+        <v>200.9687500345065</v>
       </c>
       <c r="O6" t="n">
-        <v>14.19150001043942</v>
+        <v>14.17634473461007</v>
       </c>
       <c r="P6" t="n">
-        <v>373.8310209487768</v>
+        <v>373.8580451661728</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21180,28 +21233,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09333223301219366</v>
+        <v>-0.09782130918450553</v>
       </c>
       <c r="J7" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K7" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002691582284791161</v>
+        <v>0.002966456491464875</v>
       </c>
       <c r="M7" t="n">
-        <v>10.79576460008157</v>
+        <v>10.79341584092373</v>
       </c>
       <c r="N7" t="n">
-        <v>178.9445806696722</v>
+        <v>178.7374039372879</v>
       </c>
       <c r="O7" t="n">
-        <v>13.37701688231245</v>
+        <v>13.36927088278519</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6514747061124</v>
+        <v>372.6973464080563</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21258,28 +21311,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02986035840431477</v>
+        <v>0.03083843189453012</v>
       </c>
       <c r="J8" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00044495248179377</v>
+        <v>0.0004768976209800213</v>
       </c>
       <c r="M8" t="n">
-        <v>8.026882939444612</v>
+        <v>8.011087037309801</v>
       </c>
       <c r="N8" t="n">
-        <v>113.0151605400615</v>
+        <v>112.7221446217724</v>
       </c>
       <c r="O8" t="n">
-        <v>10.63085888063902</v>
+        <v>10.61706855124203</v>
       </c>
       <c r="P8" t="n">
-        <v>382.9490066358696</v>
+        <v>382.9389915333119</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21317,7 +21370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40643,6 +40696,53 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-36.54339752661641,174.71027947382413</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-36.543981235402214,174.70941898959117</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-36.54471139558771,174.70936269884268</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-36.545364880395866,174.70897827092924</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-36.546019203043905,174.70859753507298</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-36.54669539516834,174.70830052575573</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-36.54742901687443,174.70850458036077</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15096,6 +15096,33 @@
         <v>385.7363636363637</v>
       </c>
       <c r="I523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="n">
+        <v>491.52</v>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="n">
+        <v>358.7509090909091</v>
+      </c>
+      <c r="G524" t="n">
+        <v>355.6066666666667</v>
+      </c>
+      <c r="H524" t="n">
+        <v>384.3909090909091</v>
+      </c>
+      <c r="I524" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15112,7 +15139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20670,6 +20697,16 @@
       </c>
       <c r="B555" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -21370,7 +21407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40743,6 +40780,41 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-36.545075077552035,174.7107425406407</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-36.54602040066055,174.7086012065608</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-36.54668615011555,174.70824727316767</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-36.54742812894087,174.70848959213015</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -20883,7 +20883,7 @@
         <v>-4.435916553434896</v>
       </c>
       <c r="J2" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K2" t="n">
         <v>230</v>
@@ -20961,7 +20961,7 @@
         <v>-3.475005873275376</v>
       </c>
       <c r="J3" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K3" t="n">
         <v>245</v>
@@ -21036,28 +21036,28 @@
         <v>0.0492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7420252935102601</v>
+        <v>-0.6664978476304142</v>
       </c>
       <c r="J4" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04838616683744501</v>
+        <v>0.03654921266735167</v>
       </c>
       <c r="M4" t="n">
-        <v>16.83125574974422</v>
+        <v>17.19534245661243</v>
       </c>
       <c r="N4" t="n">
-        <v>559.8198997901553</v>
+        <v>607.1742592894965</v>
       </c>
       <c r="O4" t="n">
-        <v>23.66051351492937</v>
+        <v>24.64090621891769</v>
       </c>
       <c r="P4" t="n">
-        <v>383.0584259118467</v>
+        <v>382.2406672663049</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21117,7 +21117,7 @@
         <v>-0.5788889399653754</v>
       </c>
       <c r="J5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K5" t="n">
         <v>368</v>
@@ -21192,28 +21192,28 @@
         <v>0.0606</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3823522140038975</v>
+        <v>-0.3848373567309011</v>
       </c>
       <c r="J6" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03914380397079131</v>
+        <v>0.03982184725759375</v>
       </c>
       <c r="M6" t="n">
-        <v>10.90696881261146</v>
+        <v>10.89128448454439</v>
       </c>
       <c r="N6" t="n">
-        <v>200.9687500345065</v>
+        <v>200.5296792678348</v>
       </c>
       <c r="O6" t="n">
-        <v>14.17634473461007</v>
+        <v>14.16085023110671</v>
       </c>
       <c r="P6" t="n">
-        <v>373.8580451661728</v>
+        <v>373.8830574396662</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21270,28 +21270,28 @@
         <v>0.0654</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09782130918450553</v>
+        <v>-0.1045165677567928</v>
       </c>
       <c r="J7" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K7" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002966456491464875</v>
+        <v>0.003391753159969424</v>
       </c>
       <c r="M7" t="n">
-        <v>10.79341584092373</v>
+        <v>10.80264262648922</v>
       </c>
       <c r="N7" t="n">
-        <v>178.7374039372879</v>
+        <v>178.8133962469264</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36927088278519</v>
+        <v>13.37211263215078</v>
       </c>
       <c r="P7" t="n">
-        <v>372.6973464080563</v>
+        <v>372.765992652028</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21348,28 +21348,28 @@
         <v>0.0634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03083843189453012</v>
+        <v>0.03115328822690813</v>
       </c>
       <c r="J8" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K8" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004768976209800213</v>
+        <v>0.0004891224369152347</v>
       </c>
       <c r="M8" t="n">
-        <v>8.011087037309801</v>
+        <v>7.991453924735586</v>
       </c>
       <c r="N8" t="n">
-        <v>112.7221446217724</v>
+        <v>112.4210577635948</v>
       </c>
       <c r="O8" t="n">
-        <v>10.61706855124203</v>
+        <v>10.60287969202682</v>
       </c>
       <c r="P8" t="n">
-        <v>382.9389915333119</v>
+        <v>382.935755959326</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0133/nzd0133.xlsx
+++ b/data/nzd0133/nzd0133.xlsx
@@ -20877,7 +20877,7 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014</v>
+        <v>0.0101</v>
       </c>
       <c r="I2" t="n">
         <v>-4.435916553434896</v>
@@ -20949,13 +20949,13 @@
         <v>0.1669977879324578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0329</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1206</v>
+        <v>0.0101</v>
       </c>
       <c r="I3" t="n">
         <v>-3.475005873275376</v>
@@ -21027,13 +21027,13 @@
         <v>0.3338238399949261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0339</v>
+        <v>0.0147</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0492</v>
+        <v>0.0152</v>
       </c>
       <c r="I4" t="n">
         <v>-0.6664978476304142</v>
@@ -21105,13 +21105,13 @@
         <v>0.5008216279291229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0405</v>
+        <v>0.024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0534</v>
+        <v>0.0286</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5788722492943826</v>
@@ -21183,13 +21183,13 @@
         <v>0.6678130335004921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0488</v>
+        <v>0.0396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0606</v>
+        <v>0.0499</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3848735380183498</v>
@@ -21261,13 +21261,13 @@
         <v>0.833515154133695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0548</v>
+        <v>0.0499</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0654</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1045178553038914</v>
@@ -21339,13 +21339,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0524</v>
+        <v>0.0393</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0634</v>
+        <v>0.0478</v>
       </c>
       <c r="I8" t="n">
         <v>0.03112956970733573</v>
